--- a/Data/EC/NIT-9009395687.xlsx
+++ b/Data/EC/NIT-9009395687.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33467F6C-16CF-442B-A96A-8817622C50F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4DD8B05-D891-4CF0-8552-7FEF39910EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A27A198D-D92B-4BD2-A0BB-5B0AAEE73AE0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{42D33F6B-FC9F-43AA-9E33-2AA102A0C4DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,169 +65,169 @@
     <t>CC</t>
   </si>
   <si>
+    <t>52960876</t>
+  </si>
+  <si>
+    <t>YESENIA BARRIOS NORIEGA</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
     <t>22809680</t>
   </si>
   <si>
     <t>MONICA PATRICIA SOLIS OCHOA</t>
   </si>
   <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
     <t>1609</t>
   </si>
   <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>52960876</t>
-  </si>
-  <si>
-    <t>YESENIA BARRIOS NORIEGA</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
     <t>98549857</t>
   </si>
   <si>
     <t>JAIME EDUARDO GUARNIZO CARRERA</t>
   </si>
   <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
     <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -271,7 +271,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,7 +641,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9063C7DC-6BE0-BE02-44DF-7D8B71405833}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7274393-55B7-D6FC-7CE2-F0178A1AE5F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -992,28 +992,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2F4DD5-3F7F-4641-940E-E781DDD55A63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E597363A-628C-4532-835D-DA1874B7F70D}">
   <dimension ref="B2:J71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -1026,7 +1026,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1037,7 +1037,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1048,7 +1048,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1059,8 +1059,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>65</v>
       </c>
@@ -1075,8 +1075,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1091,8 +1091,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>66</v>
       </c>
@@ -1107,8 +1107,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>67</v>
       </c>
@@ -1127,7 +1127,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1170,27 +1170,27 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>27578</v>
+        <v>90000</v>
       </c>
       <c r="G16" s="18">
-        <v>689455</v>
+        <v>2250000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>27578</v>
@@ -1202,18 +1202,18 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>27578</v>
@@ -1225,30 +1225,30 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>90000</v>
+        <v>27578</v>
       </c>
       <c r="G19" s="18">
-        <v>2250000</v>
+        <v>689455</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1259,10 +1259,10 @@
         <v>18</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F20" s="18">
-        <v>100000</v>
+        <v>73333</v>
       </c>
       <c r="G20" s="18">
         <v>2500000</v>
@@ -1271,7 +1271,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>18</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
         <v>100000</v>
@@ -1294,7 +1294,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>18</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F22" s="18">
         <v>100000</v>
@@ -1317,7 +1317,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>18</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F23" s="18">
         <v>100000</v>
@@ -1340,7 +1340,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>18</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F24" s="18">
         <v>100000</v>
@@ -1363,7 +1363,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>18</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F25" s="18">
         <v>100000</v>
@@ -1386,7 +1386,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>18</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F26" s="18">
         <v>100000</v>
@@ -1409,7 +1409,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>18</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F27" s="18">
         <v>100000</v>
@@ -1432,7 +1432,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>18</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F28" s="18">
         <v>100000</v>
@@ -1455,7 +1455,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>18</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F29" s="18">
         <v>100000</v>
@@ -1478,7 +1478,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>18</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F30" s="18">
         <v>100000</v>
@@ -1501,7 +1501,7 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>18</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F31" s="18">
         <v>100000</v>
@@ -1524,7 +1524,7 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>18</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F32" s="18">
         <v>100000</v>
@@ -1547,7 +1547,7 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>18</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F33" s="18">
         <v>100000</v>
@@ -1570,7 +1570,7 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>18</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F34" s="18">
         <v>100000</v>
@@ -1593,7 +1593,7 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>18</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F35" s="18">
         <v>100000</v>
@@ -1616,7 +1616,7 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>18</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F36" s="18">
         <v>100000</v>
@@ -1639,7 +1639,7 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>18</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F37" s="18">
         <v>100000</v>
@@ -1662,7 +1662,7 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>18</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F38" s="18">
         <v>100000</v>
@@ -1685,7 +1685,7 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>18</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F39" s="18">
         <v>100000</v>
@@ -1708,7 +1708,7 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>18</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F40" s="18">
         <v>100000</v>
@@ -1731,7 +1731,7 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>18</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F41" s="18">
         <v>100000</v>
@@ -1754,7 +1754,7 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>18</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F42" s="18">
         <v>100000</v>
@@ -1777,7 +1777,7 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>18</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F43" s="18">
         <v>100000</v>
@@ -1800,7 +1800,7 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>18</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F44" s="18">
         <v>100000</v>
@@ -1823,7 +1823,7 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>18</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" s="18">
         <v>100000</v>
@@ -1846,7 +1846,7 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>18</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" s="18">
         <v>100000</v>
@@ -1869,7 +1869,7 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>18</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F47" s="18">
         <v>100000</v>
@@ -1892,7 +1892,7 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>18</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F48" s="18">
         <v>100000</v>
@@ -1915,7 +1915,7 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>18</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F49" s="18">
         <v>100000</v>
@@ -1938,7 +1938,7 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>18</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F50" s="18">
         <v>100000</v>
@@ -1961,7 +1961,7 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>18</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F51" s="18">
         <v>100000</v>
@@ -1984,7 +1984,7 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>18</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F52" s="18">
         <v>100000</v>
@@ -2007,7 +2007,7 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>18</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F53" s="18">
         <v>100000</v>
@@ -2030,7 +2030,7 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>18</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F54" s="18">
         <v>100000</v>
@@ -2053,7 +2053,7 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>18</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F55" s="18">
         <v>100000</v>
@@ -2076,7 +2076,7 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>18</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F56" s="18">
         <v>100000</v>
@@ -2099,7 +2099,7 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>18</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F57" s="18">
         <v>100000</v>
@@ -2122,7 +2122,7 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>18</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F58" s="18">
         <v>100000</v>
@@ -2145,7 +2145,7 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>18</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F59" s="18">
         <v>100000</v>
@@ -2168,7 +2168,7 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>18</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F60" s="18">
         <v>100000</v>
@@ -2191,7 +2191,7 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>18</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F61" s="18">
         <v>100000</v>
@@ -2214,7 +2214,7 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>18</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F62" s="18">
         <v>100000</v>
@@ -2237,7 +2237,7 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>18</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F63" s="18">
         <v>100000</v>
@@ -2260,7 +2260,7 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>18</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F64" s="18">
         <v>100000</v>
@@ -2283,7 +2283,7 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="21" t="s">
         <v>8</v>
       </c>
@@ -2294,10 +2294,10 @@
         <v>18</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="F65" s="24">
-        <v>73333</v>
+        <v>100000</v>
       </c>
       <c r="G65" s="24">
         <v>2500000</v>
@@ -2306,7 +2306,7 @@
       <c r="I65" s="25"/>
       <c r="J65" s="26"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="32" t="s">
         <v>73</v>
       </c>
@@ -2317,7 +2317,7 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="32" t="s">
         <v>72</v>
       </c>

--- a/Data/EC/NIT-9009395687.xlsx
+++ b/Data/EC/NIT-9009395687.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4DD8B05-D891-4CF0-8552-7FEF39910EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0703CB06-47FF-44FF-9154-75F7600B5F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{42D33F6B-FC9F-43AA-9E33-2AA102A0C4DA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4F6CBC12-0470-4799-953C-E2662E35E979}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,21 @@
     <t>CC</t>
   </si>
   <si>
+    <t>22809680</t>
+  </si>
+  <si>
+    <t>MONICA PATRICIA SOLIS OCHOA</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
     <t>52960876</t>
   </si>
   <si>
@@ -74,160 +89,145 @@
     <t>1703</t>
   </si>
   <si>
-    <t>22809680</t>
-  </si>
-  <si>
-    <t>MONICA PATRICIA SOLIS OCHOA</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
     <t>98549857</t>
   </si>
   <si>
     <t>JAIME EDUARDO GUARNIZO CARRERA</t>
   </si>
   <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
     <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -271,7 +271,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,7 +326,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -339,9 +341,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -541,23 +541,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -585,10 +585,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -626,13 +626,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>667900</xdr:colOff>
+      <xdr:colOff>426600</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>430650</xdr:colOff>
+      <xdr:colOff>189350</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -641,7 +641,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7274393-55B7-D6FC-7CE2-F0178A1AE5F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72E93586-77B5-5922-434B-5E3EB51EE620}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -663,7 +663,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="921900" y="246450"/>
+          <a:off x="680600" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -992,28 +992,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E597363A-628C-4532-835D-DA1874B7F70D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27473CF-D253-47B5-91EF-E464B5ED3E79}">
   <dimension ref="B2:J71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -1026,7 +1026,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1037,7 +1037,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1048,7 +1048,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1059,8 +1059,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
         <v>65</v>
       </c>
@@ -1075,8 +1075,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1091,8 +1091,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
         <v>66</v>
       </c>
@@ -1107,8 +1107,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
         <v>67</v>
       </c>
@@ -1127,7 +1127,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1170,27 +1170,27 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>90000</v>
+        <v>27578</v>
       </c>
       <c r="G16" s="18">
-        <v>2250000</v>
+        <v>689455</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>27578</v>
@@ -1202,18 +1202,18 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>27578</v>
@@ -1225,30 +1225,30 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>27578</v>
+        <v>90000</v>
       </c>
       <c r="G19" s="18">
-        <v>689455</v>
+        <v>2250000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1259,10 +1259,10 @@
         <v>18</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
-        <v>73333</v>
+        <v>100000</v>
       </c>
       <c r="G20" s="18">
         <v>2500000</v>
@@ -1271,7 +1271,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>18</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21" s="18">
         <v>100000</v>
@@ -1294,7 +1294,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>18</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
         <v>100000</v>
@@ -1317,7 +1317,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>18</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F23" s="18">
         <v>100000</v>
@@ -1340,7 +1340,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>18</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24" s="18">
         <v>100000</v>
@@ -1363,7 +1363,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>18</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F25" s="18">
         <v>100000</v>
@@ -1386,7 +1386,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>18</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F26" s="18">
         <v>100000</v>
@@ -1409,7 +1409,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>18</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F27" s="18">
         <v>100000</v>
@@ -1432,7 +1432,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>18</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F28" s="18">
         <v>100000</v>
@@ -1455,7 +1455,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>18</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F29" s="18">
         <v>100000</v>
@@ -1478,7 +1478,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>18</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F30" s="18">
         <v>100000</v>
@@ -1501,7 +1501,7 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>18</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31" s="18">
         <v>100000</v>
@@ -1524,7 +1524,7 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>18</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F32" s="18">
         <v>100000</v>
@@ -1547,7 +1547,7 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>18</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F33" s="18">
         <v>100000</v>
@@ -1570,7 +1570,7 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>18</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F34" s="18">
         <v>100000</v>
@@ -1593,7 +1593,7 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>18</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F35" s="18">
         <v>100000</v>
@@ -1616,7 +1616,7 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>18</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F36" s="18">
         <v>100000</v>
@@ -1639,7 +1639,7 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>18</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F37" s="18">
         <v>100000</v>
@@ -1662,7 +1662,7 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>18</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F38" s="18">
         <v>100000</v>
@@ -1685,7 +1685,7 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>18</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F39" s="18">
         <v>100000</v>
@@ -1708,7 +1708,7 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>18</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F40" s="18">
         <v>100000</v>
@@ -1731,7 +1731,7 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>18</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F41" s="18">
         <v>100000</v>
@@ -1754,7 +1754,7 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>18</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F42" s="18">
         <v>100000</v>
@@ -1777,7 +1777,7 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>18</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F43" s="18">
         <v>100000</v>
@@ -1800,7 +1800,7 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>18</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F44" s="18">
         <v>100000</v>
@@ -1823,7 +1823,7 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>18</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" s="18">
         <v>100000</v>
@@ -1846,7 +1846,7 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>18</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" s="18">
         <v>100000</v>
@@ -1869,7 +1869,7 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>18</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F47" s="18">
         <v>100000</v>
@@ -1892,7 +1892,7 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>18</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F48" s="18">
         <v>100000</v>
@@ -1915,7 +1915,7 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>18</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F49" s="18">
         <v>100000</v>
@@ -1938,7 +1938,7 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>18</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F50" s="18">
         <v>100000</v>
@@ -1961,7 +1961,7 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>18</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F51" s="18">
         <v>100000</v>
@@ -1984,7 +1984,7 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>18</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F52" s="18">
         <v>100000</v>
@@ -2007,7 +2007,7 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>18</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F53" s="18">
         <v>100000</v>
@@ -2030,7 +2030,7 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:10">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>18</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F54" s="18">
         <v>100000</v>
@@ -2053,7 +2053,7 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>18</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F55" s="18">
         <v>100000</v>
@@ -2076,7 +2076,7 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>18</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F56" s="18">
         <v>100000</v>
@@ -2099,7 +2099,7 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:10">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>18</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F57" s="18">
         <v>100000</v>
@@ -2122,7 +2122,7 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:10">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>18</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F58" s="18">
         <v>100000</v>
@@ -2145,7 +2145,7 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:10">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>18</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F59" s="18">
         <v>100000</v>
@@ -2168,7 +2168,7 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:10">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>18</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F60" s="18">
         <v>100000</v>
@@ -2191,7 +2191,7 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:10">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>18</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F61" s="18">
         <v>100000</v>
@@ -2214,7 +2214,7 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:10">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>18</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F62" s="18">
         <v>100000</v>
@@ -2237,7 +2237,7 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:10">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>18</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F63" s="18">
         <v>100000</v>
@@ -2260,7 +2260,7 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:10">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>18</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F64" s="18">
         <v>100000</v>
@@ -2283,7 +2283,7 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:10">
       <c r="B65" s="21" t="s">
         <v>8</v>
       </c>
@@ -2294,10 +2294,10 @@
         <v>18</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="F65" s="24">
-        <v>100000</v>
+        <v>73333</v>
       </c>
       <c r="G65" s="24">
         <v>2500000</v>
@@ -2306,7 +2306,7 @@
       <c r="I65" s="25"/>
       <c r="J65" s="26"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:10">
       <c r="B70" s="32" t="s">
         <v>73</v>
       </c>
@@ -2317,7 +2317,7 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:10">
       <c r="B71" s="32" t="s">
         <v>72</v>
       </c>

--- a/Data/EC/NIT-9009395687.xlsx
+++ b/Data/EC/NIT-9009395687.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0703CB06-47FF-44FF-9154-75F7600B5F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1349F4F-682B-4A9E-BE35-798AC49DDF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4F6CBC12-0470-4799-953C-E2662E35E979}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6E1E3582-DC17-4E76-9F88-8FA1370611A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,9 +326,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -341,7 +339,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -535,29 +535,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -576,19 +576,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -626,13 +632,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>426600</xdr:colOff>
+      <xdr:colOff>667900</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>189350</xdr:colOff>
+      <xdr:colOff>430650</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -641,7 +647,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72E93586-77B5-5922-434B-5E3EB51EE620}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFF29334-CDCE-9BE8-9FB9-E2B5B3E69E3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -663,7 +669,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="680600" y="246450"/>
+          <a:off x="921900" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -992,80 +998,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27473CF-D253-47B5-91EF-E464B5ED3E79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA56A47-6F2E-4F09-B5F5-12A8EEC8B6CC}">
   <dimension ref="B2:J71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1075,13 +1081,13 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9009395687</v>
       </c>
@@ -1091,13 +1097,13 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>4746067</v>
       </c>
@@ -1107,8 +1113,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>67</v>
       </c>
@@ -1127,7 +1133,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1156,7 +1162,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1166,20 +1172,20 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>27578</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>689455</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1189,20 +1195,20 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>27578</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>689455</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1212,20 +1218,20 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>27578</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>689455</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1235,20 +1241,20 @@
       <c r="D19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>90000</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>2250000</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1258,20 +1264,20 @@
       <c r="D20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G20" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="F20" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G20" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1281,20 +1287,20 @@
       <c r="D21" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G21" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="F21" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G21" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1304,20 +1310,20 @@
       <c r="D22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G22" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="F22" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G22" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1327,20 +1333,20 @@
       <c r="D23" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G23" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="F23" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G23" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1350,20 +1356,20 @@
       <c r="D24" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G24" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="F24" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G24" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1373,20 +1379,20 @@
       <c r="D25" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G25" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="F25" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G25" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1396,20 +1402,20 @@
       <c r="D26" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G26" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="F26" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G26" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1419,20 +1425,20 @@
       <c r="D27" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G27" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="F27" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G27" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1442,20 +1448,20 @@
       <c r="D28" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G28" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="F28" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G28" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1465,20 +1471,20 @@
       <c r="D29" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G29" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="F29" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G29" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1488,20 +1494,20 @@
       <c r="D30" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G30" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="F30" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G30" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1511,20 +1517,20 @@
       <c r="D31" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G31" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10">
+      <c r="F31" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G31" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1534,20 +1540,20 @@
       <c r="D32" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G32" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10">
+      <c r="F32" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G32" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1557,20 +1563,20 @@
       <c r="D33" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G33" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10">
+      <c r="F33" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G33" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1580,20 +1586,20 @@
       <c r="D34" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G34" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="2:10">
+      <c r="F34" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G34" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1603,20 +1609,20 @@
       <c r="D35" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F35" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G35" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10">
+      <c r="F35" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G35" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1626,20 +1632,20 @@
       <c r="D36" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G36" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10">
+      <c r="F36" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G36" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1649,20 +1655,20 @@
       <c r="D37" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F37" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G37" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10">
+      <c r="F37" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G37" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1672,20 +1678,20 @@
       <c r="D38" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G38" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10">
+      <c r="F38" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G38" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1695,20 +1701,20 @@
       <c r="D39" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F39" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G39" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10">
+      <c r="F39" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G39" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1718,20 +1724,20 @@
       <c r="D40" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F40" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G40" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10">
+      <c r="F40" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G40" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1741,20 +1747,20 @@
       <c r="D41" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F41" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G41" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10">
+      <c r="F41" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G41" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1764,20 +1770,20 @@
       <c r="D42" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G42" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10">
+      <c r="F42" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G42" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1787,20 +1793,20 @@
       <c r="D43" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F43" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G43" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="2:10">
+      <c r="F43" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G43" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1810,20 +1816,20 @@
       <c r="D44" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F44" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G44" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="2:10">
+      <c r="F44" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G44" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1833,20 +1839,20 @@
       <c r="D45" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G45" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="2:10">
+      <c r="F45" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G45" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1856,20 +1862,20 @@
       <c r="D46" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F46" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G46" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="2:10">
+      <c r="F46" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G46" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1879,20 +1885,20 @@
       <c r="D47" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F47" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G47" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="2:10">
+      <c r="F47" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G47" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -1902,20 +1908,20 @@
       <c r="D48" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F48" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G48" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10">
+      <c r="F48" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G48" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -1925,20 +1931,20 @@
       <c r="D49" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F49" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G49" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10">
+      <c r="F49" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G49" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
@@ -1948,20 +1954,20 @@
       <c r="D50" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F50" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G50" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10">
+      <c r="F50" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G50" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
@@ -1971,20 +1977,20 @@
       <c r="D51" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F51" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G51" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10">
+      <c r="F51" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G51" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
@@ -1994,20 +2000,20 @@
       <c r="D52" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F52" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G52" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:10">
+      <c r="F52" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G52" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
@@ -2017,20 +2023,20 @@
       <c r="D53" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F53" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G53" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
-    </row>
-    <row r="54" spans="2:10">
+      <c r="F53" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G53" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
@@ -2040,20 +2046,20 @@
       <c r="D54" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F54" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G54" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
-    </row>
-    <row r="55" spans="2:10">
+      <c r="F54" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G54" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
@@ -2063,20 +2069,20 @@
       <c r="D55" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F55" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G55" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
-    </row>
-    <row r="56" spans="2:10">
+      <c r="F55" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G55" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
@@ -2086,20 +2092,20 @@
       <c r="D56" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F56" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G56" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
-    </row>
-    <row r="57" spans="2:10">
+      <c r="F56" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G56" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
@@ -2109,20 +2115,20 @@
       <c r="D57" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F57" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G57" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
-    </row>
-    <row r="58" spans="2:10">
+      <c r="F57" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G57" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
@@ -2132,20 +2138,20 @@
       <c r="D58" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F58" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G58" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
-    </row>
-    <row r="59" spans="2:10">
+      <c r="F58" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G58" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
@@ -2155,20 +2161,20 @@
       <c r="D59" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F59" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G59" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
-    </row>
-    <row r="60" spans="2:10">
+      <c r="F59" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G59" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
@@ -2178,20 +2184,20 @@
       <c r="D60" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F60" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G60" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
-    </row>
-    <row r="61" spans="2:10">
+      <c r="F60" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G60" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
@@ -2201,20 +2207,20 @@
       <c r="D61" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F61" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G61" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
-    </row>
-    <row r="62" spans="2:10">
+      <c r="F61" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G61" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
@@ -2224,20 +2230,20 @@
       <c r="D62" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F62" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G62" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
-    </row>
-    <row r="63" spans="2:10">
+      <c r="F62" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G62" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
@@ -2247,20 +2253,20 @@
       <c r="D63" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F63" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G63" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
-    </row>
-    <row r="64" spans="2:10">
+      <c r="F63" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G63" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
@@ -2270,58 +2276,58 @@
       <c r="D64" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F64" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G64" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
-    </row>
-    <row r="65" spans="2:10">
-      <c r="B65" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D65" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" s="22" t="s">
+      <c r="F64" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G64" s="19">
+        <v>2500000</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B65" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="F65" s="24">
+      <c r="F65" s="26">
         <v>73333</v>
       </c>
-      <c r="G65" s="24">
-        <v>2500000</v>
-      </c>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="26"/>
-    </row>
-    <row r="70" spans="2:10">
-      <c r="B70" s="32" t="s">
+      <c r="G65" s="26">
+        <v>2500000</v>
+      </c>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="28"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B70" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C70" s="32"/>
+      <c r="C70" s="34"/>
       <c r="H70" s="1" t="s">
         <v>73</v>
       </c>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
     </row>
-    <row r="71" spans="2:10">
-      <c r="B71" s="32" t="s">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B71" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="32"/>
+      <c r="C71" s="34"/>
       <c r="H71" s="1" t="s">
         <v>74</v>
       </c>
